--- a/script/result_llm_tranform/px4_docs/px4_mission/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_mission/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="263">
   <si>
     <t>index</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>This formula expresses that globally (G), if there's Stick movement (S) and no Battery failsafe (¬B), then in the next state (X), the vehicle will be in Position mode (P). It captures the default behavior of RC stick movement.</t>
+  </si>
+  <si>
+    <t>{'sentence': 'If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'formula': '(¬S ∨ F ∨ ¬F) → H', 'explanation': "Here, S represents a mission being stored, F represents PX4 finishing executing all mission commands, and H represents the vehicle holding. However, please note that the original sentence is incomplete and doesn't specify the outcome of the condition. I've assumed the outcome as H (vehicle holding) based on the next sentence."}</t>
+  </si>
+  <si>
+    <t>{'sentence': '1.If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'formula': 'G((¬S ∨ F ∨ ¬F) → ¬E)', 'explanation': 'S stands for a mission being stored, F for the execution of all commands being finished, and E for the mission being executed. This ensures that if no mission is stored or all commands are finished or the mission is not feasible, then the mission is not executed.'}</t>
   </si>
   <si>
     <t>{'sentence': '5.RC stick movement will by default change the vehicle to Position mode unless handling a critical battery failsafe.', 'formula': 'G((R ∧ ¬B) → X(P))', 'explanation': "R represents RC stick movement, B represents handling a critical battery failsafe, and P represents Position mode. The formula states that globally, if there's RC stick movement and no critical battery failsafe, then in the next state, the vehicle will be in Position mode."}</t>
@@ -274,6 +280,12 @@
     <t>PX4 will execute the [mission/flight plan](../flying/missions.md).</t>
   </si>
   <si>
+    <t>{'sentence': 'PX4 will execute the mission/flight plan.', 'formula': 'G(E)', 'explanation': 'E represents executing the mission or flight plan. This formula simply states that PX4 will execute the mission globally.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'PX4 will execute the mission/flight plan.', 'formula': 'F(E)', 'explanation': 'E represents executing the mission/flight plan. This formula states that eventually, PX4 will execute the mission/flight plan.'}</t>
+  </si>
+  <si>
     <t>41-41</t>
   </si>
   <si>
@@ -286,7 +298,8 @@
     <t>M represents a stored mission, T represents a TAKEOFF item, A represents flying to minimum altitude, and E represents mission execution. The formula states that globally, if there's a mission without a TAKEOFF item, the vehicle will fly to minimum altitude until it starts executing the mission.</t>
   </si>
   <si>
-    <t>{'sentence': 'If the mission does not have a TAKEOFF item then PX4 will fly the vehicle to the minimum altitude before executing the remainder of the flight plan from the current step.', 'formula': '¬T → X(F ∧ G(M))', 'explanation': 'Here, T represents the presence of a TAKEOFF item in the mission, F represents flying to the minimum altitude, and M represents executing the remainder of the flight plan. The formula states that if there is no TAKEOFF item, then PX4 will fly to the minimum altitude and then execute the remainder of the flight plan indefinitely.'}</t>
+    <t xml:space="preserve">{'sentence': 'If the mission does not have a TAKEOFF item then PX4 will fly the vehicle to the minimum altitude before executing the remainder of the flight plan from the current step.', 'formula': '¬T → X(F ∧ G(M))', 'explanation': 'Here, T represents the presence of a TAKEOFF item in the mission, F represents flying to the minimum altitude, and M represents executing the remainder of the flight plan. The formula states that if there is no TAKEOFF item, then PX4 will fly to the minimum altitude and then execute the remainder of the flight plan indefinitely.'}
+</t>
   </si>
   <si>
     <t>{'sentence': 'If the mission does not have a TAKEOFF item then PX4 will fly the vehicle to the minimum altitude before executing the remainder of the flight plan from the current step.', 'formula': 'G((¬T → (M ∧ X(E))))', 'explanation': 'T represents the presence of a TAKEOFF item, M represents reaching the minimum altitude, and E represents executing the remainder of the flight plan. This ensures that if there is no TAKEOFF item, PX4 flies to the minimum altitude before continuing the mission.'}</t>
@@ -310,6 +323,15 @@
     <t>M represents a stored mission, FE represents finished execution, FL represents flying state, and H represents hold state. The formula ensures that globally, if there's no mission, or execution is finished, and the vehicle is flying, it will hold.</t>
   </si>
   <si>
+    <t>{'sentence': 'If flying the vehicle will hold.', 'formula': 'F → H', 'explanation': 'Here, F represents the vehicle flying and H represents the vehicle holding. The formula states that if the vehicle is flying, it will hold.'}
+{'sentence': 'If flying the vehicle will hold.', 'formula': 'F → G(H)', 'explanation': 'Here, F represents flying and H represents holding. The formula states that if the vehicle is flying, it will hold indefinitely.'}
+{'sentence': 'If no mission is stored, or if PX4 has finished executing all mission commands:', 'formula': '¬M ∨ F → X(H ∨ W)', 'explanation': 'Here, M represents the presence of a stored mission, F represents finishing executing all mission commands, H represents holding, and W represents waiting. The formula states that if there is no stored mission or if all mission commands have been executed, then the vehicle will either hold or wait.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'If flying the vehicle will hold.', 'formula': 'G(F → H)', 'explanation': 'Globally (G), if Flying (F), it implies the vehicle will Hold (H). This simple formula captures the direct relationship between the flying state and the hold action.'}
+{'sentence': 'If flying the vehicle will hold.', 'formula': 'G(F → H)', 'explanation': 'This formula states that globally, if the vehicle is flying (F), then it will hold (H). The global operator ensures this condition is maintained throughout the flight.'}</t>
+  </si>
+  <si>
     <t>44-44</t>
   </si>
   <si>
@@ -319,6 +341,15 @@
     <t>M represents a stored mission, FE represents finished execution, FL represents flying state, and W represents wait state. The formula ensures that globally, if there's no mission, or execution is finished, and the vehicle is flying, it will hold.</t>
   </si>
   <si>
+    <t>{'sentence': 'If landed the vehicle will "wait".', 'formula': 'L → W', 'explanation': 'Here, L represents the vehicle being landed and W represents the vehicle waiting. The formula states that if the vehicle is landed, it will wait.'}
+{'sentence': 'If landed the vehicle will "wait".', 'formula': 'L → G(W)', 'explanation': 'Here, L represents being landed and W represents waiting. The formula states that if the vehicle is landed, it will wait indefinitely.'}
+{'sentence': 'If no mission is stored, or if PX4 has finished executing all mission commands:', 'formula': '¬M ∨ F → X(H ∨ W)', 'explanation': 'Here, M represents the presence of a stored mission, F represents finishing executing all mission commands, H represents holding, and W represents waiting. The formula states that if there is no stored mission or if all mission commands have been executed, then the vehicle will either hold or wait.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'If landed the vehicle will "wait".', 'formula': 'G(L → W)', 'explanation': 'This formula states that globally (at all times), if the vehicle is landed (L), then it will wait (W). The implication captures the conditional nature of the statement.'}
+{'sentence': 'If landed the vehicle will "wait".', 'formula': 'G(L → W)', 'explanation': 'This formula is identical to the first one, reiterating that globally, if the vehicle is landed (L), it will wait (W). The repetition emphasizes the importance of this behavior.'}</t>
+  </si>
+  <si>
     <t>48-48</t>
   </si>
   <si>
@@ -655,6 +686,12 @@
     <t>Globally (G), when Approaching (A) or Leaving (L) a waypoint, it implies that in the Future (F), there's a speed Change (C). This formula captures the speed adjustment near waypoints.</t>
   </si>
   <si>
+    <t>{'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'formula': 'V ∧ (A ∨ L) → ∃s (S(s) ∧ X(S(s)))', 'explanation': 'Here, V represents the vehicle, A represents approaching a waypoint, L represents leaving a waypoint, S represents the speed, and X represents the change in speed. The formula states that when the vehicle approaches or leaves a waypoint, it will change its speed based on the jerk-limited tuning.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'formula': 'G((A ∨ L) → C)', 'explanation': 'This formula states that globally, when approaching (A) or leaving (L) a waypoint, the speed will change (C). The global operator ensures this behavior occurs throughout the mission for all waypoints.'}</t>
+  </si>
+  <si>
     <t>199-199</t>
   </si>
   <si>
@@ -685,6 +722,15 @@
     <t>R represents entering the acceptance radius, and N represents switching to the next waypoint. This formula ensures that globally, when a vehicle enters the acceptance radius, in the next state it switches to the next waypoint.</t>
   </si>
   <si>
+    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'V ∧ ∃w (W(w) ∧ F[0, t](E(w)))', 'explanation': 'Here, V represents the vehicle, W represents the next waypoint, E represents entering the acceptance radius, and t represents the time it takes to enter the acceptance radius. The formula states that the vehicle will switch to the next waypoint as soon as it enters the acceptance radius within a certain time t.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'G((ENTER_ACC_RAD) → X(SWITCH_WP))', 'explanation': 'ENTER_ACC_RAD represents entering the acceptance radius, and SWITCH_WP indicates switching to the next waypoint. The formula states that globally, if a vehicle enters the acceptance radius, it should switch to the next waypoint in the next time step.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'G(E → X(N))', 'explanation': 'Globally (G), when the vehicle Enters (E) the acceptance radius, it implies that in the Next (X) state, it moves to the Next waypoint (N). This formula precisely captures the immediate transition upon entering the radius.'}</t>
+  </si>
+  <si>
     <t>208-208</t>
   </si>
   <si>
@@ -712,6 +758,15 @@
     <t>Globally (G), during mission Execution (E) if a takeoff mission is planned(T), the vehicle ascends Vertically (V) Until (U) it reaches the minimum altitude, then Heads (H) towards the target Position (P). This captures the sequence of actions during takeoff.</t>
   </si>
   <si>
+    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'E → (F(A ∧ F(H)))', 'explanation': 'Here, E represents the execution of the mission, A represents the vehicle ascending to the minimum takeoff altitude, and H represents the vehicle heading towards the 3D position defined in the mission item. The formula states that during mission execution, the vehicle will eventually ascend to the minimum takeoff altitude and then head towards the 3D position.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'G(EXECUTE_MISSION → (ASCEND ∧ F(HEAD_TO_3D_POS)))', 'explanation': 'EXECUTE_MISSION represents the mission execution, ASCEND indicates ascending to the minimum takeoff altitude, and HEAD_TO_3D_POS denotes heading to the 3D position. The formula states that globally, during mission execution, the vehicle will ascend and eventually head to the 3D position.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'G(M → (F(A) ∧ F(A → F(H))))', 'explanation': 'Globally (G), during Mission execution (M), the vehicle will Finally (F) Ascend (A) to the minimum altitude, and then Finally (F) Head (H) towards the 3D position. The nested F operators capture the sequential nature of these actions.'}</t>
+  </si>
+  <si>
     <t>212-212</t>
   </si>
   <si>
@@ -751,57 +806,15 @@
     <t>{'sentence': 'If the vehicle is already flying when the mission is started, a takeoff mission item is treated as a normal waypoint.', 'formula': 'G((F ∧ S ∧ T) → W)', 'explanation': "Globally (G), if the vehicle is Flying (F) when the mission is Started (S) and there's a Takeoff item (T), it implies that it's treated as a normal Waypoint (W). This formula encapsulates the conditional behavior based on the vehicle's state."}</t>
   </si>
   <si>
-    <t>{'sentence': 'If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'formula': '(¬S ∨ F ∨ ¬F) → H', 'explanation': "Here, S represents a mission being stored, F represents PX4 finishing executing all mission commands, and H represents the vehicle holding. However, please note that the original sentence is incomplete and doesn't specify the outcome of the condition. I've assumed the outcome as H (vehicle holding) based on the next sentence."}</t>
-  </si>
-  <si>
-    <t>{'sentence': '1.If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'formula': 'G((¬S ∨ F ∨ ¬F) → ¬E)', 'explanation': 'S stands for a mission being stored, F for the execution of all commands being finished, and E for the mission being executed. This ensures that if no mission is stored or all commands are finished or the mission is not feasible, then the mission is not executed.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'PX4 will execute the mission/flight plan.', 'formula': 'F(E)', 'explanation': 'E represents executing the mission/flight plan. This formula states that eventually, PX4 will execute the mission/flight plan.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'PX4 will execute the mission/flight plan.', 'formula': 'G(E)', 'explanation': 'E represents executing the mission or flight plan. This formula simply states that PX4 will execute the mission globally.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'G(E → X(N))', 'explanation': 'Globally (G), when the vehicle Enters (E) the acceptance radius, it implies that in the Next (X) state, it moves to the Next waypoint (N). This formula precisely captures the immediate transition upon entering the radius.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'If no mission is stored, or if PX4 has finished executing all mission commands:', 'formula': '¬M ∨ F → X(H ∨ W)', 'explanation': 'Here, M represents the presence of a stored mission, F represents finishing executing all mission commands, H represents holding, and W represents waiting. The formula states that if there is no stored mission or if all mission commands have been executed, then the vehicle will either hold or wait.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'G((ENTER_ACC_RAD) → X(SWITCH_WP))', 'explanation': 'ENTER_ACC_RAD represents entering the acceptance radius, and SWITCH_WP indicates switching to the next waypoint. The formula states that globally, if a vehicle enters the acceptance radius, it should switch to the next waypoint in the next time step.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'G(M → (F(A) ∧ F(A → F(H))))', 'explanation': 'Globally (G), during Mission execution (M), the vehicle will Finally (F) Ascend (A) to the minimum altitude, and then Finally (F) Head (H) towards the 3D position. The nested F operators capture the sequential nature of these actions.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'If flying the vehicle will hold.', 'formula': 'F → G(H)', 'explanation': 'Here, F represents flying and H represents holding. The formula states that if the vehicle is flying, it will hold indefinitely.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'G(EXECUTE_MISSION → (ASCEND ∧ F(HEAD_TO_3D_POS)))', 'explanation': 'EXECUTE_MISSION represents the mission execution, ASCEND indicates ascending to the minimum takeoff altitude, and HEAD_TO_3D_POS denotes heading to the 3D position. The formula states that globally, during mission execution, the vehicle will ascend and eventually head to the 3D position.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'This is true for multicopters and VTOL in MC mode.', 'formula': 'G((C ∨ V) → T)', 'explanation': 'Globally (G), for multicopters (C) or VTOL in MC mode (V), the statement is True (T). This formula generalizes the applicability of the previous statement to specific vehicle types.'}</t>
   </si>
   <si>
-    <t>{'sentence': 'If landed the vehicle will "wait".', 'formula': 'L → G(W)', 'explanation': 'Here, L represents being landed and W represents waiting. The formula states that if the vehicle is landed, it will wait indefinitely.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'If flying the vehicle will hold.', 'formula': 'G(F → H)', 'explanation': 'This formula states that globally, if the vehicle is flying (F), then it will hold (H). The global operator ensures this condition is maintained throughout the flight.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'You can manually change the current mission command by selecting it in _QGroundControl_.', 'formula': 'None', 'explanation': 'This sentence does not describe a temporal property, but rather a manual action that can be taken. Therefore, it cannot be translated into an MTL formula.'}</t>
   </si>
   <si>
-    <t>{'sentence': 'If landed the vehicle will "wait".', 'formula': 'G(L → W)', 'explanation': 'This formula is identical to the first one, reiterating that globally, if the vehicle is landed (L), it will wait (W). The repetition emphasizes the importance of this behavior.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'Missions are uploaded onto a SD card that needs to be inserted before booting up the autopilot.', 'formula': 'G(S → F(M))', 'explanation': 'Here, S represents the SD card being inserted, and M represents the mission being uploaded. The formula states that globally, if the SD card is inserted, then eventually the mission will be uploaded.'}</t>
   </si>
   <si>
-    <t>{'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'formula': 'G((A ∨ L) → C)', 'explanation': 'This formula states that globally, when approaching (A) or leaving (L) a waypoint, the speed will change (C). The global operator ensures this behavior occurs throughout the mission for all waypoints.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'We recommend you centre the control sticks before switching to any other mode.', 'formula': 'G(C → F(M))', 'explanation': 'Here, C represents the control sticks being centred, and M represents the vehicle switching to another mode. The formula states that globally, if the control sticks are centred, then eventually the vehicle will switch to another mode.'}</t>
   </si>
   <si>
@@ -811,16 +824,7 @@
     <t>{'sentence': 'Not all messages/commands are exposed via _QGroundControl_.', 'formula': '¬∀m (M(m) → Q(m))', 'explanation': 'Here, M represents the messages/commands, and Q represents QGroundControl. The formula states that not all messages/commands are exposed via QGroundControl.'}</t>
   </si>
   <si>
-    <t>{'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'formula': 'V ∧ (A ∨ L) → ∃s (S(s) ∧ X(S(s)))', 'explanation': 'Here, V represents the vehicle, A represents approaching a waypoint, L represents leaving a waypoint, S represents the speed, and X represents the change in speed. The formula states that when the vehicle approaches or leaves a waypoint, it will change its speed based on the jerk-limited tuning.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'The diagram below shows the sorts of paths that you might expect.', 'formula': 'N/A', 'explanation': 'This sentence does not describe a temporal property, so it cannot be translated into an MTL formula.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'formula': 'V ∧ ∃w (W(w) ∧ F[0, t](E(w)))', 'explanation': 'Here, V represents the vehicle, W represents the next waypoint, E represents entering the acceptance radius, and t represents the time it takes to enter the acceptance radius. The formula states that the vehicle will switch to the next waypoint as soon as it enters the acceptance radius within a certain time t.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'formula': 'E → (F(A ∧ F(H)))', 'explanation': 'Here, E represents the execution of the mission, A represents the vehicle ascending to the minimum takeoff altitude, and H represents the vehicle heading towards the 3D position defined in the mission item. The formula states that during mission execution, the vehicle will eventually ascend to the minimum takeoff altitude and then head towards the 3D position.'}</t>
   </si>
 </sst>
 </file>
@@ -1812,8 +1816,8 @@
   <sheetPr/>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2076,19 +2080,19 @@
         <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -2102,20 +2106,17 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>50</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2128,19 +2129,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2152,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -2166,19 +2167,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -2190,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -2204,31 +2205,31 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -2242,19 +2243,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -2266,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -2280,22 +2281,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>7</v>
@@ -2310,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="51" spans="1:12">
+    <row r="14" ht="101" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2318,23 +2319,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" ht="269" spans="1:12">
       <c r="A15" s="2">
@@ -2344,31 +2353,31 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -2382,16 +2391,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2400,7 +2409,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" ht="118" spans="1:12">
+    <row r="17" ht="353" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2408,19 +2417,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -2432,13 +2441,13 @@
         <v>7</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="118" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="370" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2446,19 +2455,19 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -2470,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="185" spans="1:12">
@@ -2484,19 +2493,19 @@
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -2522,19 +2531,19 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -2560,31 +2569,31 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -2598,16 +2607,16 @@
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>7</v>
@@ -2636,22 +2645,22 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>7</v>
@@ -2660,10 +2669,10 @@
         <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="252" spans="1:12">
@@ -2674,22 +2683,22 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>7</v>
@@ -2698,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="303" spans="1:12">
@@ -2712,34 +2721,34 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
+        <v>141</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>7</v>
+        <v>142</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="118" spans="1:12">
@@ -2750,22 +2759,22 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>7</v>
+        <v>148</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>7</v>
@@ -2788,22 +2797,22 @@
         <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>7</v>
@@ -2812,10 +2821,10 @@
         <v>7</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="236" spans="1:12">
@@ -2826,22 +2835,22 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>7</v>
+        <v>159</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>7</v>
@@ -2864,22 +2873,22 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>164</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>7</v>
@@ -2902,28 +2911,28 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>7</v>
+        <v>169</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>7</v>
+        <v>170</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>7</v>
@@ -2940,34 +2949,34 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>7</v>
+        <v>176</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="152" spans="1:12">
@@ -2978,34 +2987,34 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>7</v>
+        <v>182</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>7</v>
+        <v>183</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>7</v>
+        <v>184</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="84" spans="1:12">
@@ -3016,16 +3025,16 @@
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>7</v>
@@ -3054,34 +3063,34 @@
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>7</v>
+        <v>192</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="152" spans="1:12">
@@ -3092,34 +3101,34 @@
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
+        <v>198</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>7</v>
+        <v>199</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>7</v>
+        <v>200</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="135" spans="1:12">
@@ -3130,22 +3139,22 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>7</v>
@@ -3168,22 +3177,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>7</v>
+        <v>210</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>7</v>
@@ -3192,13 +3201,13 @@
         <v>7</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="118" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="202" spans="1:12">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3206,22 +3215,22 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>7</v>
+        <v>216</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>7</v>
@@ -3230,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>7</v>
+        <v>217</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="202" spans="1:12">
@@ -3244,22 +3253,22 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
+        <v>222</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>7</v>
@@ -3268,13 +3277,13 @@
         <v>7</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" ht="118" spans="1:12">
+        <v>223</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="202" spans="1:12">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3282,34 +3291,34 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>7</v>
+        <v>228</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>7</v>
+        <v>229</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>7</v>
+        <v>230</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="202" spans="1:12">
@@ -3320,22 +3329,22 @@
         <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>235</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>7</v>
@@ -3350,7 +3359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="185" spans="1:12">
+    <row r="42" ht="269" spans="1:12">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3358,34 +3367,34 @@
         <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>7</v>
+        <v>241</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="269" spans="1:12">
@@ -3396,34 +3405,34 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>7</v>
+        <v>248</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>7</v>
+        <v>249</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="219" spans="1:12">
@@ -3434,22 +3443,22 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>7</v>
+        <v>254</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>7</v>
@@ -3458,10 +3467,10 @@
         <v>7</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>7</v>
+        <v>255</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="17" spans="1:12">
@@ -3601,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" ht="202" spans="1:12">
+    <row r="49" ht="17" spans="1:12">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -3620,26 +3629,14 @@
       <c r="F49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="J49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="L49" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" ht="168" spans="1:12">
+    <row r="50" ht="17" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -3661,20 +3658,15 @@
       <c r="H50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="J50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" ht="252" spans="1:12">
+    <row r="51" ht="17" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -3693,26 +3685,20 @@
       <c r="F51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" ht="269" spans="1:12">
+    <row r="52" ht="135" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -3731,26 +3717,22 @@
       <c r="F52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" ht="118" spans="1:12">
+        <v>256</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -3769,9 +3751,7 @@
       <c r="F53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
         <v>7</v>
       </c>
@@ -3781,14 +3761,12 @@
       <c r="J53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" ht="135" spans="1:12">
+    <row r="54" ht="118" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -3808,10 +3786,10 @@
         <v>7</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>7</v>
+        <v>257</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>7</v>
@@ -3819,14 +3797,12 @@
       <c r="J54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="168" spans="1:12">
+    <row r="55" ht="135" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -3846,10 +3822,10 @@
         <v>7</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>7</v>
+        <v>258</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>7</v>
@@ -3857,9 +3833,7 @@
       <c r="J55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
         <v>7</v>
       </c>
@@ -3884,10 +3858,10 @@
         <v>7</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>7</v>
+        <v>259</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>7</v>
@@ -3922,10 +3896,10 @@
         <v>7</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>7</v>
+        <v>260</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>7</v>
@@ -3960,10 +3934,10 @@
         <v>7</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>7</v>
+        <v>261</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>7</v>
@@ -3978,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" ht="202" spans="1:12">
+    <row r="59" ht="17" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -3997,9 +3971,7 @@
       <c r="F59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
         <v>7</v>
       </c>
@@ -4036,10 +4008,10 @@
         <v>7</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>7</v>
+        <v>262</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>7</v>
@@ -4054,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" ht="185" spans="1:12">
+    <row r="61" ht="17" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -4073,26 +4045,23 @@
       <c r="F61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" ht="252" spans="1:12">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <f>COUNTIF(H2:H60,1)</f>
+        <v>26</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <f>COUNTIF(J2:J60,1)</f>
+        <v>12</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2">
+        <f>COUNTIF(L2:L60,1)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="17" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -4111,23 +4080,20 @@
       <c r="F62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>7</v>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <f>COUNTIF(H2:H60,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
+        <f>COUNTIF(J2:J60,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2">
+        <f>COUNTIF(L2:L60,0)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/script/result_llm_tranform/px4_docs/px4_mission/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_mission/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="263">
   <si>
     <t>index</t>
   </si>
@@ -1816,8 +1816,8 @@
   <sheetPr/>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" topLeftCell="C56" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2964,7 +2964,7 @@
         <v>175</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>176</v>
@@ -3381,8 +3381,8 @@
       <c r="G42" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>7</v>
+      <c r="H42" s="2">
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>241</v>
@@ -4048,7 +4048,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2">
         <f>COUNTIF(H2:H60,1)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2">
@@ -4083,7 +4083,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2">
         <f>COUNTIF(H2:H60,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2">
